--- a/wwwroot/Export/CustomerInfo.xlsx
+++ b/wwwroot/Export/CustomerInfo.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>Customer Information</x:t>
+  </x:si>
+  <x:si>
     <x:t>Code</x:t>
   </x:si>
   <x:si>
@@ -31,10 +34,19 @@
     <x:t>CreditLimit</x:t>
   </x:si>
   <x:si>
+    <x:t>009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>updated</x:t>
+  </x:si>
+  <x:si>
     <x:t>string</x:t>
   </x:si>
   <x:si>
-    <x:t>0909090909</x:t>
+    <x:t>08613232683</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09090909099</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -44,10 +56,18 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="20"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -61,7 +81,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -73,6 +93,23 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -80,14 +117,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -98,8 +142,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
-  <x:autoFilter ref="A1:E2"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0">
+  <x:autoFilter ref="A2:E4"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Code"/>
     <x:tableColumn id="2" name="Name"/>
@@ -399,47 +443,76 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
+  <x:dimension ref="A1:E4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="B1" s="1"/>
+      <x:c r="C1" s="1"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E2" s="0">
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="0">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="0">
         <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A1:E1"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
